--- a/my-unisa-azure/literature summary.xlsx
+++ b/my-unisa-azure/literature summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erwang\Documents\EricWang\U\phd\papers_edu_learn_theory_collab_AI_LA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erwang\Documents\EricWang\U\shared\shared\my-unisa-azure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BB9001-FA56-41C2-A82E-947CF731E724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E869AE1F-F9FD-4934-8C75-CFBD1F90AAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11850" yWindow="-16470" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="literature summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'literature summary'!$A$1:$I$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'literature summary'!$A$1:$I$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Author</t>
   </si>
@@ -82,13 +82,7 @@
     <t>3 main experiments</t>
   </si>
   <si>
-    <t>Engagement Detection Based on AnalyzingMicro Body Gestures Using 3D CNN</t>
-  </si>
-  <si>
     <t>Title Author</t>
-  </si>
-  <si>
-    <t>Shoroog Khenkar and Salma Kammoun Jarraya</t>
   </si>
   <si>
     <r>
@@ -116,81 +110,10 @@
     <t>key points</t>
   </si>
   <si>
-    <t>others all lower than 0.94</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
-    <t>student profile</t>
-  </si>
-  <si>
-    <t>self-report surveys (before and after recordings)</t>
-  </si>
-  <si>
-    <t>spatiotemporal: temporal (frequency over past time) and spatial data (micro body gesture, linked with emotions) across video frames</t>
-  </si>
-  <si>
-    <t>manually labelled (high cost): macro gestures e.g. eating talking, using cell phone: negative; macro e.g. typing on keyboard: positive</t>
-  </si>
-  <si>
-    <t>2 engagement state: positive engagement and negative engagement</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">re-construct video dataset using </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>key-frame selection based on cosine similarity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -&gt; video clips</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 5 students, 1240 mins lessons -&gt; 2476 video clips (2~40 secs), each clip is labelled to positive or negative engagement</t>
-    </r>
-  </si>
-  <si>
     <t>other notes</t>
-  </si>
-  <si>
-    <t>hardware (laptop, 16G RAM, with NVIDIA GEFORCE GTX graphics)</t>
-  </si>
-  <si>
-    <t>1. 0.93 
-2. 0.94</t>
-  </si>
-  <si>
-    <t>micro body gestures; deep transfer learning; CV-based method; use web-cam and cheap hardware; 2 model; 0.93 and 0.94 accuracy</t>
-  </si>
-  <si>
-    <t>Students’ emotion extraction and visualization for engagement detection in online learning</t>
-  </si>
-  <si>
-    <t>Mohammad Nehal Hasnine et al.</t>
-  </si>
-  <si>
-    <t>can be used in collaborative learning</t>
   </si>
   <si>
     <t>OpenCV; CNN; feedback to teachers; Facial data; 3 engagement levels; craeted Concentration Index to classify</t>
@@ -232,24 +155,12 @@
 use CI to classify: &gt;0.65, 0.23~0.65, &lt;0.23: Highly engaged; Engaged: Disengaged</t>
   </si>
   <si>
-    <t>1. OpenCV + dlib;
-2. Emotion detection model from paper Arriaga O et al. 2017;
-3. Eye detection methods from paper Sergio Canu;
-4. Engagement detection calculated using CI (see left)</t>
-  </si>
-  <si>
     <t>2. 0.68</t>
   </si>
   <si>
     <t>test with a 28-sec long video clip containing 11 student faces during online learning from YouTube to classify their engagement levels</t>
   </si>
   <si>
-    <t>few details about CNN models</t>
-  </si>
-  <si>
-    <t>Focused on classfification results and result visualization, not accuracy scores</t>
-  </si>
-  <si>
     <t>limitations</t>
   </si>
   <si>
@@ -257,12 +168,6 @@
   </si>
   <si>
     <t>camera position and face direction matter; need more data</t>
-  </si>
-  <si>
-    <t>Lanqin Zheng | Jiayu Niu | Lu Zhong</t>
-  </si>
-  <si>
-    <t>Effects of a learning analytics-based real-time feedback approach on knowledge elaboration, knowledge convergence, interactive relationships and group performance in CSCL</t>
   </si>
   <si>
     <t>CSCL; LA-based; Real-time feedback; Transfer Learning; BERT; Knowledge Convergence; Knowledge Elaboration; interactive relationships; group performance; ANCOVA</t>
@@ -277,35 +182,6 @@
 4.5.6.7.: significantly difference identified between experimental group over control group</t>
   </si>
   <si>
-    <t>3. input pipeline: extract non-overlapping frames, frames to array, resize frames, crop frames, channel-wise mean subtraction, load serialized files, create training data stream
-4. split: train/test/validation: 0.8/0.1/0.1
-5. compare: other methods by others: SVM, ANN, NB, SVM+HOG, CNN, VGGnet, Engagement Model, DBN</t>
-  </si>
-  <si>
-    <t>1. use pre-trained C3D model as feature extractor (5 conv layers + 5 MaxPooling + 2 Dense + Softmax -&gt; 61,214,000 parameters, SGD optimizer, cross entrop loss) then feed to linear claasifiers: SVM and NB
-2. transfer learning: fine-tune C3D model  (originally trained from Sports-1M dataset) with created new dataset: add new dataset with pre-trained C3D to get fine-tuned C3D, added fronzen layer to stop weight updating, and add 3 dense layers on top of freeze layers, Adam optimizer)</t>
-  </si>
-  <si>
-    <t>1. BERT (MAX_LEN=128, BATCH_SIZE=32, EPOCHS=3, LR=5e-5, split=0.7/0.3)
-2. SVM
-3. Logistic Regression
-4. ANCOVA (omega square) of K. Elaboration: dependent: number of K. Elaboration, independent: learning approach, covariate: pre-test scores
-5. ANCOVA (omega square) of K. Convergence: dependent: number of K. Convergence, independent: learning approach, covariate: pre-test scores</t>
-  </si>
-  <si>
-    <t>6. t-test (Cohen's d) of Interactive Relationships: number of interactions, interaction frequency and density
-7. ANCOVA (omega square) of Group Performance: group performance</t>
-  </si>
-  <si>
-    <t>72 studnets -&gt; 2 groups (Experimental Group and Control Group) -&gt; 12 small groups in each group</t>
-  </si>
-  <si>
-    <t>15 mins pre-test;
-20 mins introduction;
-180 mins collaborative learning;
-60 mins interview</t>
-  </si>
-  <si>
     <t>can visualize each person and whole group's performance in real-time, people can adjust themselves in real-time</t>
   </si>
   <si>
@@ -313,29 +189,8 @@
 better to have more collaborative tasks, not only 1</t>
   </si>
   <si>
-    <t>1. pre-test of 72 students;
-2. online discussion transcripts in real-time;
-3. interactive records
-4. group performance</t>
-  </si>
-  <si>
-    <t>5. Interview transcripts (after experiments) from 12 students of Experiemental Group (not Control Group)</t>
-  </si>
-  <si>
-    <t>Calculate of online discussion transcripts: draw network map -&gt; Code and segmetn transcripts -&gt; K.elaboration=weighted path length of activation spanning tree, K.convergence-number of activations on map = sum of number of activations of each vertex on map;</t>
-  </si>
-  <si>
-    <t>Group perforamance: calculated from pre-defined rubric</t>
-  </si>
-  <si>
     <t>Examining the designs of computer-based assessment and its impact
 on student engagement, satisfaction, and pass rates</t>
-  </si>
-  <si>
-    <t>An intelligent system for monitoring students' engagement in large classroom teaching through facial expression recognition</t>
-  </si>
-  <si>
-    <t>Chakradhar Pabba | Praveen Kumar</t>
   </si>
   <si>
     <t>Facial; CNN FER (Online for real-time + Offline for FER); 6 classes; self-created datasets + internet images + 3 open video datasets; real-time; offline classroom video recording; privacy protection; data augmentation</t>
@@ -424,12 +279,109 @@
 2. </t>
     </r>
   </si>
+  <si>
+    <t>Engagement Detection Based on AnalyzingMicro Body Gestures Using 3D CNN
+Shoroog Khenkar and Salma Kammoun Jarraya</t>
+  </si>
+  <si>
+    <t>micro body gestures; deep transfer learning; CV-based method; use web-cam and cheap hardware; 2 model; 0.93 and 0.94 accuracy
+hardware (laptop, 16G RAM, with NVIDIA GEFORCE GTX graphics)</t>
+  </si>
+  <si>
+    <t>spatiotemporal: temporal (frequency over past time) and spatial data (micro body gesture, linked with emotions) across video frames
+re-construct video dataset using key-frame selection based on cosine similarity -&gt; video clips: 5 students, 1240 mins lessons -&gt; 2476 video clips (2~40 secs), each clip is labelled to positive or negative engagement</t>
+  </si>
+  <si>
+    <t>student profile
+self-report surveys (before and after recordings)</t>
+  </si>
+  <si>
+    <t>2 engagement state: positive engagement and negative engagement
+manually labelled (high cost): macro gestures e.g. eating talking, using cell phone: negative; macro e.g. typing on keyboard: positive</t>
+  </si>
+  <si>
+    <t>1. use pre-trained C3D model as feature extractor (5 conv layers + 5 MaxPooling + 2 Dense + Softmax -&gt; 61,214,000 parameters, SGD optimizer, cross entrop loss) then feed to linear claasifiers: SVM and NB
+2. transfer learning: fine-tune C3D model  (originally trained from Sports-1M dataset) with created new dataset: add new dataset with pre-trained C3D to get fine-tuned C3D, added fronzen layer to stop weight updating, and add 3 dense layers on top of freeze layers, Adam optimizer)
+3. input pipeline: extract non-overlapping frames, frames to array, resize frames, crop frames, channel-wise mean subtraction, load serialized files, create training data stream
+4. split: train/test/validation: 0.8/0.1/0.1
+5. compare: other methods by others: SVM, ANN, NB, SVM+HOG, CNN, VGGnet, Engagement Model, DBN</t>
+  </si>
+  <si>
+    <t>1. 0.93 
+2. 0.94
+others all lower than 0.94</t>
+  </si>
+  <si>
+    <t>Students’ emotion extraction and visualization for engagement detection in online learning
+Mohammad Nehal Hasnine et al.</t>
+  </si>
+  <si>
+    <t>1. OpenCV + dlib;
+2. Emotion detection model from paper Arriaga O et al. 2017;
+3. Eye detection methods from paper Sergio Canu;
+4. Engagement detection calculated using CI (see left)
+Focused on classfification results and result visualization, not accuracy scores</t>
+  </si>
+  <si>
+    <t>few details about CNN models
+can be used in collaborative learning</t>
+  </si>
+  <si>
+    <t>72 studnets -&gt; 2 groups (Experimental Group and Control Group) -&gt; 12 small groups in each group
+15 mins pre-test;
+20 mins introduction;
+180 mins collaborative learning;
+60 mins interview</t>
+  </si>
+  <si>
+    <t>1. BERT (MAX_LEN=128, BATCH_SIZE=32, EPOCHS=3, LR=5e-5, split=0.7/0.3)
+2. SVM
+3. Logistic Regression
+4. ANCOVA (omega square) of K. Elaboration: dependent: number of K. Elaboration, independent: learning approach, covariate: pre-test scores
+5. ANCOVA (omega square) of K. Convergence: dependent: number of K. Convergence, independent: learning approach, covariate: pre-test scores
+6. t-test (Cohen's d) of Interactive Relationships: number of interactions, interaction frequency and density
+7. ANCOVA (omega square) of Group Performance: group performance</t>
+  </si>
+  <si>
+    <t>5. Interview transcripts (after experiments) from 12 students of Experiemental Group (not Control Group)
+Group perforamance: calculated from pre-defined rubric</t>
+  </si>
+  <si>
+    <t>1. pre-test of 72 students;
+2. online discussion transcripts in real-time;
+3. interactive records
+4. group performance
+Calculate of online discussion transcripts: draw network map -&gt; Code and segmetn transcripts -&gt; K.elaboration=weighted path length of activation spanning tree, K.convergence-number of activations on map = sum of number of activations of each vertex on map;</t>
+  </si>
+  <si>
+    <t>Effects of a learning analytics-based real-time feedback approach on knowledge elaboration, knowledge convergence, interactive relationships and group performance in CSCL
+Lanqin Zheng | Jiayu Niu | Lu Zhong</t>
+  </si>
+  <si>
+    <t>An intelligent system for monitoring students' engagement in large classroom teaching through facial expression recognition
+Chakradhar Pabba | Praveen Kumar</t>
+  </si>
+  <si>
+    <t>p001</t>
+  </si>
+  <si>
+    <t>p002</t>
+  </si>
+  <si>
+    <t>p003</t>
+  </si>
+  <si>
+    <t>p004</t>
+  </si>
+  <si>
+    <t>p005</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,12 +400,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -526,31 +472,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -560,13 +485,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,15 +827,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEA0AD1-05A1-4078-88E7-51883E78C932}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.1796875" style="1" customWidth="1"/>
@@ -928,324 +850,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>46</v>
+      <c r="K1" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+    <row r="3" spans="1:11" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:11" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>47</v>
+      <c r="J5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="107.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="15" t="s">
+    <row r="6" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="G6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="113.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
-        <v>5</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
-        <v>5</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>6</v>
-      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I13" xr:uid="{7BEA0AD1-05A1-4078-88E7-51883E78C932}"/>
-  <mergeCells count="12">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C8:C9"/>
-  </mergeCells>
+  <autoFilter ref="A1:I8" xr:uid="{7BEA0AD1-05A1-4078-88E7-51883E78C932}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
